--- a/excelmaestro/amc_model_master_2025-11-15.xlsx
+++ b/excelmaestro/amc_model_master_2025-11-15.xlsx
@@ -794,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,26 +857,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q1-2025</t>
+          <t>Q3-2025</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>862.5</v>
+        <v>1300.2</v>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>16.3</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>-63.1</v>
       </c>
       <c r="G2" t="n">
-        <v>-45</v>
+        <v>-298.2</v>
       </c>
     </row>
     <row r="3">
@@ -892,38 +892,251 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1400</v>
+        <v>1397.9</v>
       </c>
       <c r="E3" t="n">
-        <v>220</v>
+        <v>180.8</v>
       </c>
       <c r="F3" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Q1-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>862.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-66.59999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-142.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-202.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q4-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1306.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-135.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q3-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1348.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-20.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q2-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q1-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>FY-2024</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B9" t="n">
         <v>2024</v>
       </c>
-      <c r="D4" t="n">
-        <v>4810</v>
-      </c>
-      <c r="E4" t="n">
-        <v>685</v>
-      </c>
-      <c r="F4" t="n">
-        <v>425</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-135</v>
+      <c r="D9" t="n">
+        <v>4637.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>312.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-352.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FY-2023</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4812.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-396.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FY-2022</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3911.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-361.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-973.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FY-2021</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2527.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-321.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-746.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1269.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FY-2020</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/excelmaestro/amc_model_master_2025-11-15.xlsx
+++ b/excelmaestro/amc_model_master_2025-11-15.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,278 +508,231 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>First Lien Notes 2026</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.75% Odeon Senior Secured Notes due 2027</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bono</t>
-        </is>
+          <t>secured</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.75</v>
+        <v>429.3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No call provision</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>semestral</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2027-10-15</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>AMC 10-Q 2025-08-11 (nota deuda, Odeon 2027)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>principal aproximado; verificar fecha exacta en filing</t>
+          <t>Senior Secured First Lien Notes due 2026, secured by substantially all assets</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>First Lien Notes 2029</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.5% First Lien Notes due 2029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bono</t>
-        </is>
+          <t>secured</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sí (first lien)</t>
+          <t>2029-02-15</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>950</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.5</v>
+        <v>800</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Callable at 103.75% (2025)</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>semestral</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2029-06-15</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>AMC 10-Q 2025-08-11 (7.5% Notes 2029)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>principal confirmado; fechas orientativas</t>
+          <t>Senior Secured First Lien Notes due 2029, callable premium declines 1.25% annually</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Second Lien Notes 2026</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6.00%/8.00% Cash/PIK Toggle Senior Secured Exchangeable Notes due 2030</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bono</t>
-        </is>
+          <t>unsecured</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>444.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+        <v>199.2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No call provision</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>semestral</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2030-06-30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>AMC 10-Q 2025-08-11 (Exchangeable Notes 2030)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>cupón efectivo depende de mix cash/PIK; aquí solo pierna cash</t>
+          <t>Senior Unsecured Second Lien Notes due 2026</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Convertible Notes 2026</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10%/12% Cash/PIK Toggle Second Lien Subordinated Notes due 2026</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>bono subordinado</t>
-        </is>
+          <t>convertible</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sí (second lien)</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+        <v>110.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Convertible at $2.50/share</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>semestral</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+          <t>0% Convertible Senior Notes due 2026, conversion price $2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABL Revolver Facility</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>secured</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>2026-12-31</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>AMC 10-Q 2025-08-11 (Second Lien 2026)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>tramo que está en proceso de refinanciación según PR 2024–2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5.875% Senior Subordinated Notes due 2026</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bono subordinado</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="E6" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.875</v>
+        <v>150</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Revolving credit</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>semestral</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2026-11-15</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>AMC 10-Q 2025-08-11 (5.875% 2026)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>parte de los vencimientos 2026 que se están atacando con refinanciaciones</t>
+          <t>Asset-Based Lending Revolver, $500M total capacity, $150M drawn</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Equipment Finance Leases</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.125% Senior Subordinated Notes due 2027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bono subordinado</t>
-        </is>
+          <t>lease</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>2025-2030</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>125.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>6.125</v>
+        <v/>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>semestral</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2027-06-15</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>AMC 10-Q 2025-08-11 (6.125% 2027)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>subordinado a medio plazo</t>
+          <t>Finance leases for theatre equipment and digital projectors</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Odeon Term Loan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>secured</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2027-03-31</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Callable with 2% premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Odeon Cinemas UK term loan facility, secured by UK assets</t>
         </is>
       </c>
     </row>
